--- a/OrangeHRM-Selenium/ExecutedTestcases.xlsx
+++ b/OrangeHRM-Selenium/ExecutedTestcases.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18696" windowHeight="3372"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Test Case</t>
   </si>
@@ -76,8 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,17 +412,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="53.77734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="23.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
